--- a/data/gtw.xlsx
+++ b/data/gtw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/5ir/projet Intégrateur/planificateur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7CFA8A-028A-224E-8C21-ED5EEDB44234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A02995-FA56-674F-B99A-52C25B650B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="7280" windowWidth="24620" windowHeight="16960" xr2:uid="{517881D1-09B4-6740-B49F-0BFC3805F249}"/>
+    <workbookView xWindow="17340" yWindow="600" windowWidth="13380" windowHeight="16960" xr2:uid="{517881D1-09B4-6740-B49F-0BFC3805F249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Task_id</t>
   </si>
@@ -39,34 +39,37 @@
     <t>date</t>
   </si>
   <si>
-    <t>MS1_01</t>
-  </si>
-  <si>
-    <t>MS1_02</t>
-  </si>
-  <si>
-    <t>MS1_03</t>
-  </si>
-  <si>
-    <t>MS1_04</t>
-  </si>
-  <si>
-    <t>MS1_05</t>
-  </si>
-  <si>
-    <t>MS1_06</t>
-  </si>
-  <si>
-    <t>MS1_07</t>
-  </si>
-  <si>
-    <t>MS1_08</t>
-  </si>
-  <si>
-    <t>MS1_09</t>
-  </si>
-  <si>
-    <t>MS1_10</t>
+    <t>GTW_01</t>
+  </si>
+  <si>
+    <t>GTW_02</t>
+  </si>
+  <si>
+    <t>GTW_03</t>
+  </si>
+  <si>
+    <t>GTW_04</t>
+  </si>
+  <si>
+    <t>GTW_05</t>
+  </si>
+  <si>
+    <t>GTW_06</t>
+  </si>
+  <si>
+    <t>GTW_07</t>
+  </si>
+  <si>
+    <t>GTW_08</t>
+  </si>
+  <si>
+    <t>GTW_09</t>
+  </si>
+  <si>
+    <t>GTW_10</t>
+  </si>
+  <si>
+    <t>next</t>
   </si>
 </sst>
 </file>
@@ -108,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FB9DDD-D2C4-294B-AC8F-F022C1DBFE40}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,74 +449,113 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43658</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43686</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43609</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43581</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43609</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -522,19 +565,28 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43707</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -544,16 +596,25 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>43644</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43784</v>
       </c>
     </row>
   </sheetData>

--- a/data/gtw.xlsx
+++ b/data/gtw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/5ir/projet Intégrateur/planificateur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A02995-FA56-674F-B99A-52C25B650B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1FE45-20F6-9542-9999-10854A52778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17340" yWindow="600" windowWidth="13380" windowHeight="16960" xr2:uid="{517881D1-09B4-6740-B49F-0BFC3805F249}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Task_id</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>next</t>
+  </si>
+  <si>
+    <t>GTW_06, GTW_07</t>
+  </si>
+  <si>
+    <t>prec</t>
   </si>
 </sst>
 </file>
@@ -428,15 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FB9DDD-D2C4-294B-AC8F-F022C1DBFE40}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +462,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -470,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -486,8 +499,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -503,8 +519,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -520,8 +539,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -535,10 +557,13 @@
         <v>43581</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -554,8 +579,11 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -568,8 +596,11 @@
       <c r="D8" s="1">
         <v>43658</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -585,8 +616,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -602,8 +636,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -615,6 +652,9 @@
       </c>
       <c r="D11" s="1">
         <v>43784</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
